--- a/2022/Samsung/Others/Sure Shot Excel File Dec.21.xlsx
+++ b/2022/Samsung/Others/Sure Shot Excel File Dec.21.xlsx
@@ -15456,6 +15456,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15468,18 +15475,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15767,7 +15767,7 @@
   <dimension ref="B3:G1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1725" sqref="K1725"/>
+      <selection activeCell="E1725" sqref="E1725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15783,14 +15783,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>5009</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -24632,7 +24632,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="11" t="s">
         <v>3740</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="11" t="s">
         <v>3734</v>
       </c>
@@ -24692,7 +24692,7 @@
         <v>9670</v>
       </c>
     </row>
-    <row r="449" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B449" s="11" t="s">
         <v>3731</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="11" t="s">
         <v>3729</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>7880</v>
       </c>
     </row>
-    <row r="452" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B452" s="11" t="s">
         <v>3723</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="453" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B453" s="11" t="s">
         <v>3720</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="11" t="s">
         <v>3717</v>
       </c>
@@ -24852,7 +24852,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="11" t="s">
         <v>3708</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="458" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B458" s="11" t="s">
         <v>3705</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="459" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="11" t="s">
         <v>3702</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="11" t="s">
         <v>3699</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="461" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="11" t="s">
         <v>3696</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="464" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" s="11" t="s">
         <v>3687</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="466" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B466" s="11" t="s">
         <v>3681</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="467" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="11" t="s">
         <v>3678</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="11" t="s">
         <v>3675</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="469" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="11" t="s">
         <v>3672</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="473" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B473" s="11" t="s">
         <v>3660</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="477" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B477" s="11" t="s">
         <v>3648</v>
       </c>
@@ -25272,7 +25272,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="478" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B478" s="11" t="s">
         <v>3645</v>
       </c>
@@ -50113,13 +50113,13 @@
       </c>
     </row>
     <row r="1720" spans="2:7" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1720" s="22" t="s">
+      <c r="B1720" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1720" s="23"/>
-      <c r="D1720" s="23"/>
-      <c r="E1720" s="23"/>
-      <c r="F1720" s="24"/>
+      <c r="C1720" s="26"/>
+      <c r="D1720" s="26"/>
+      <c r="E1720" s="26"/>
+      <c r="F1720" s="27"/>
       <c r="G1720" s="2">
         <f>SUM(G5:G1719)</f>
         <v>4842990</v>
@@ -50129,13 +50129,19 @@
   <autoFilter ref="B4:G1720">
     <filterColumn colId="1">
       <filters>
-        <filter val="Arham Electronics"/>
-        <filter val="Desh Mobile"/>
-        <filter val="I P N Telecom"/>
-        <filter val="M/s Tasnim Trading"/>
-        <filter val="Rose Mobile Point"/>
-        <filter val="SH Mobile Center"/>
-        <filter val="Zillani mobile Center"/>
+        <filter val="Ayan Telecom"/>
+        <filter val="Bhuyan Mobile"/>
+        <filter val="G Store"/>
+        <filter val="Hello Bonpara"/>
+        <filter val="M K Telecom"/>
+        <filter val="Moon Telecom"/>
+        <filter val="Multi Technology"/>
+        <filter val="Mum Telecom"/>
+        <filter val="Rasel Telecom"/>
+        <filter val="Shohan Electronics"/>
+        <filter val="Sohel Store"/>
+        <filter val="Somobay Bazar"/>
+        <filter val="Sonia Cosmatic And Mobile Center"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -50171,659 +50177,659 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>5009</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>5008</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>5007</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="23" t="s">
         <v>5005</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="23" t="s">
         <v>5004</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="23" t="s">
         <v>5003</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>5010</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>3743</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>3742</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>3741</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="22">
         <v>8760</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>3740</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>3739</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>3738</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="22">
         <v>5930</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>3737</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3736</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>3735</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="22">
         <v>360</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>3734</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>3733</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>3732</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="22">
         <v>9670</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>3731</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>1860</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>3730</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="22">
         <v>3820</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>3729</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>3728</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>3727</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="22">
         <v>3300</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>3726</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>3725</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>3724</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="22">
         <v>7880</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>3723</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>3722</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>3721</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="22">
         <v>3480</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>3720</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>3719</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>3718</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="22">
         <v>1790</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>3717</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>3716</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>3715</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="22">
         <v>3090</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>3714</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>3713</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>3712</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="22">
         <v>5700</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>3711</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>3710</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>3709</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="22">
         <v>1570</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>3708</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>3707</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="21" t="s">
         <v>3706</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="22">
         <v>440</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>3705</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>3704</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>3703</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="22">
         <v>2910</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>3702</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>3701</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>3700</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="22">
         <v>2430</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>3699</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>3698</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>3697</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="22">
         <v>4240</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>3696</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>3695</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>3694</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="22">
         <v>1340</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="21" t="s">
         <v>3693</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="21" t="s">
         <v>3692</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>3691</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="22">
         <v>2680</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="21" t="s">
         <v>3690</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>3689</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>3688</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="22">
         <v>2890</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="21" t="s">
         <v>3687</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="21" t="s">
         <v>3686</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>3685</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="22">
         <v>4550</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="21" t="s">
         <v>3684</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>3683</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>3682</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="22">
         <v>2740</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="21" t="s">
         <v>3681</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>3680</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="21" t="s">
         <v>3679</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="22">
         <v>1150</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="21" t="s">
         <v>3678</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>3677</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="21" t="s">
         <v>3676</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="22">
         <v>1490</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>3675</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>3674</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="21" t="s">
         <v>3673</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="22">
         <v>2750</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
         <v>3672</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>3671</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="21" t="s">
         <v>3670</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="22">
         <v>980</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="21" t="s">
         <v>3669</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="21" t="s">
         <v>3668</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="21" t="s">
         <v>3667</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="22">
         <v>1870</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="21" t="s">
         <v>3666</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="21" t="s">
         <v>3665</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="21" t="s">
         <v>3664</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="22">
         <v>150</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>3663</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="21" t="s">
         <v>3662</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="21" t="s">
         <v>3661</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="22">
         <v>950</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="21" t="s">
         <v>3660</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="21" t="s">
         <v>3659</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>3658</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="22">
         <v>1980</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="21" t="s">
         <v>3657</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>3656</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>3655</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="22">
         <v>1530</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>3654</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="21" t="s">
         <v>3653</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="21" t="s">
         <v>3652</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="22">
         <v>920</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="21" t="s">
         <v>3651</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>3650</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="21" t="s">
         <v>3649</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="22">
         <v>150</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="21" t="s">
         <v>3648</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="21" t="s">
         <v>3647</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="21" t="s">
         <v>3646</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="22">
         <v>1440</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="21" t="s">
         <v>3645</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="21" t="s">
         <v>1248</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="21" t="s">
         <v>3643</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="21" t="s">
         <v>3642</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="22">
         <v>320</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>5011</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="22">
         <f>SUM(E3:E36)</f>
         <v>95250</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
